--- a/biology/Zoologie/Amietia_angolensis/Amietia_angolensis.xlsx
+++ b/biology/Zoologie/Amietia_angolensis/Amietia_angolensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amietia angolensis est une espèce d'amphibiens de la famille des Pyxicephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amietia angolensis est une espèce d'amphibiens de la famille des Pyxicephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à environ 3 100 m d'altitude en Afrique du Sud, en Angola, au Botswana, au Burundi, en Érythrée, en Éthiopie, au Kenya, au Lesotho, au Malawi, au Mozambique, en Namibie, en République démocratique du Congo, au Rwanda, au Swaziland, en Tanzanie, en Ouganda, en Zambie et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à environ 3 100 m d'altitude en Afrique du Sud, en Angola, au Botswana, au Burundi, en Érythrée, en Éthiopie, au Kenya, au Lesotho, au Malawi, au Mozambique, en Namibie, en République démocratique du Congo, au Rwanda, au Swaziland, en Tanzanie, en Ouganda, en Zambie et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrana angolensis mesure environ 90 mm pour les femelles. Son dos est brun clair habituellement taché de sombre. Son ventre est crème parfois marbré de noir sur la gorge[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrana angolensis mesure environ 90 mm pour les femelles. Son dos est brun clair habituellement taché de sombre. Son ventre est crème parfois marbré de noir sur la gorge.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de angol[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la ville de Duque de Bragança en Angola.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocage, 1866 : Reptiles nouveaux ou peu recueillis dans les possessions portugaises de l'Afrique occidentale, qui se trouvent au Muséum de Lisbonne. Jornal de sciencias mathematicas, physicas e naturaes, Lisboa, vol. 1, p. 57-78 (texte intégral).</t>
         </is>
